--- a/published-data/fonds-solidarite/fds-2022-06-15/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-15/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>40864</v>
+        <v>40865</v>
       </c>
       <c r="D63" t="n">
         <v>9909</v>
       </c>
       <c r="E63" t="n">
-        <v>116646014</v>
+        <v>116846014</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -4961,13 +4961,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>6008</v>
+        <v>6011</v>
       </c>
       <c r="D111" t="n">
         <v>1238</v>
       </c>
       <c r="E111" t="n">
-        <v>12069571</v>
+        <v>12081251</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5207,13 +5207,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>19720</v>
+        <v>19724</v>
       </c>
       <c r="D117" t="n">
         <v>2228</v>
       </c>
       <c r="E117" t="n">
-        <v>56570783</v>
+        <v>56614531</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5535,13 +5535,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4601</v>
+        <v>4603</v>
       </c>
       <c r="D125" t="n">
         <v>509</v>
       </c>
       <c r="E125" t="n">
-        <v>13148080</v>
+        <v>13149372</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>6666</v>
+        <v>6668</v>
       </c>
       <c r="D132" t="n">
         <v>1005</v>
       </c>
       <c r="E132" t="n">
-        <v>13471261</v>
+        <v>13493261</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5904,13 +5904,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5680</v>
+        <v>5681</v>
       </c>
       <c r="D134" t="n">
         <v>599</v>
       </c>
       <c r="E134" t="n">
-        <v>17175156</v>
+        <v>17175396</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>126051</v>
+        <v>126052</v>
       </c>
       <c r="D152" t="n">
         <v>13497</v>
       </c>
       <c r="E152" t="n">
-        <v>716040717</v>
+        <v>716082530</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>285061</v>
+        <v>285071</v>
       </c>
       <c r="D168" t="n">
         <v>58123</v>
       </c>
       <c r="E168" t="n">
-        <v>1212099833</v>
+        <v>1212579919</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562633</v>
+        <v>562644</v>
       </c>
       <c r="D169" t="n">
         <v>60955</v>
       </c>
       <c r="E169" t="n">
-        <v>1285306123</v>
+        <v>1285341892</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367481</v>
+        <v>367484</v>
       </c>
       <c r="D170" t="n">
         <v>38113</v>
       </c>
       <c r="E170" t="n">
-        <v>2847195158</v>
+        <v>2847262741</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115194</v>
+        <v>115200</v>
       </c>
       <c r="D171" t="n">
         <v>20265</v>
       </c>
       <c r="E171" t="n">
-        <v>447649697</v>
+        <v>448106930</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7462,13 +7462,13 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>21637</v>
+        <v>21639</v>
       </c>
       <c r="D172" t="n">
         <v>4332</v>
       </c>
       <c r="E172" t="n">
-        <v>73049293</v>
+        <v>73065656</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357306</v>
+        <v>357315</v>
       </c>
       <c r="D174" t="n">
         <v>69790</v>
       </c>
       <c r="E174" t="n">
-        <v>1019074556</v>
+        <v>1019595846</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125586</v>
+        <v>125587</v>
       </c>
       <c r="D175" t="n">
         <v>18103</v>
       </c>
       <c r="E175" t="n">
-        <v>814132397</v>
+        <v>814144515</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7708,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>75364</v>
+        <v>75367</v>
       </c>
       <c r="D178" t="n">
         <v>28756</v>
       </c>
       <c r="E178" t="n">
-        <v>102752703</v>
+        <v>102782703</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235758</v>
+        <v>235759</v>
       </c>
       <c r="D179" t="n">
         <v>29338</v>
       </c>
       <c r="E179" t="n">
-        <v>813177883</v>
+        <v>813180199</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141506</v>
+        <v>141509</v>
       </c>
       <c r="D180" t="n">
         <v>28891</v>
       </c>
       <c r="E180" t="n">
-        <v>341121217</v>
+        <v>341141722</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -10619,13 +10619,13 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>37150</v>
+        <v>37151</v>
       </c>
       <c r="D249" t="n">
         <v>9218</v>
       </c>
       <c r="E249" t="n">
-        <v>148684816</v>
+        <v>148715895</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -10947,13 +10947,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>182551</v>
+        <v>182552</v>
       </c>
       <c r="D257" t="n">
         <v>20359</v>
       </c>
       <c r="E257" t="n">
-        <v>1063828805</v>
+        <v>1063829900</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -11603,13 +11603,13 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>88870</v>
+        <v>88873</v>
       </c>
       <c r="D273" t="n">
         <v>29728</v>
       </c>
       <c r="E273" t="n">
-        <v>139957968</v>
+        <v>139963440</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -12505,13 +12505,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>91337</v>
+        <v>91338</v>
       </c>
       <c r="D295" t="n">
         <v>9957</v>
       </c>
       <c r="E295" t="n">
-        <v>552976201</v>
+        <v>552983184</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -12669,13 +12669,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>43283</v>
+        <v>43284</v>
       </c>
       <c r="D299" t="n">
         <v>9350</v>
       </c>
       <c r="E299" t="n">
-        <v>140787540</v>
+        <v>140797061</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -13161,13 +13161,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>190856</v>
+        <v>190857</v>
       </c>
       <c r="D311" t="n">
         <v>37720</v>
       </c>
       <c r="E311" t="n">
-        <v>586445221</v>
+        <v>586450899</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
